--- a/Data/2020_10_26.xlsx
+++ b/Data/2020_10_26.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
-  <si>
-    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-10-23 08:00 Uhr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+  <si>
+    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-10-26 08:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">Quelle: BAG/MT</t>
@@ -301,13 +301,13 @@
     <t xml:space="preserve">Inzidenz Quarantäne nach Einreise aus Risikoland</t>
   </si>
   <si>
-    <t xml:space="preserve">343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1547</t>
+    <t xml:space="preserve">453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1429</t>
   </si>
   <si>
     <t xml:space="preserve">66</t>
@@ -316,36 +316,54 @@
     <t xml:space="preserve">21</t>
   </si>
   <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
   </si>
   <si>
-    <t xml:space="preserve">2913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
     <t xml:space="preserve">1484</t>
   </si>
   <si>
@@ -461,9 +479,6 @@
   </si>
   <si>
     <t xml:space="preserve">710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399</t>
   </si>
   <si>
     <t xml:space="preserve">505</t>
@@ -486,7 +501,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="50000" formatCode="0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -525,7 +540,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50000" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,7 +832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
@@ -1296,10 +1311,10 @@
         <v>43905</v>
       </c>
       <c r="B28" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C28" t="n">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="D28" t="n">
         <v>54</v>
@@ -1322,7 +1337,7 @@
         <v>1065</v>
       </c>
       <c r="C29" t="n">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="D29" t="n">
         <v>118</v>
@@ -1345,7 +1360,7 @@
         <v>1088</v>
       </c>
       <c r="C30" t="n">
-        <v>4864</v>
+        <v>4865</v>
       </c>
       <c r="D30" t="n">
         <v>97</v>
@@ -1368,7 +1383,7 @@
         <v>1214</v>
       </c>
       <c r="C31" t="n">
-        <v>6078</v>
+        <v>6079</v>
       </c>
       <c r="D31" t="n">
         <v>113</v>
@@ -1391,7 +1406,7 @@
         <v>837</v>
       </c>
       <c r="C32" t="n">
-        <v>6915</v>
+        <v>6916</v>
       </c>
       <c r="D32" t="n">
         <v>109</v>
@@ -1414,7 +1429,7 @@
         <v>1147</v>
       </c>
       <c r="C33" t="n">
-        <v>8062</v>
+        <v>8063</v>
       </c>
       <c r="D33" t="n">
         <v>141</v>
@@ -1437,7 +1452,7 @@
         <v>693</v>
       </c>
       <c r="C34" t="n">
-        <v>8755</v>
+        <v>8756</v>
       </c>
       <c r="D34" t="n">
         <v>117</v>
@@ -1460,7 +1475,7 @@
         <v>548</v>
       </c>
       <c r="C35" t="n">
-        <v>9303</v>
+        <v>9304</v>
       </c>
       <c r="D35" t="n">
         <v>134</v>
@@ -1483,7 +1498,7 @@
         <v>1464</v>
       </c>
       <c r="C36" t="n">
-        <v>10767</v>
+        <v>10768</v>
       </c>
       <c r="D36" t="n">
         <v>161</v>
@@ -1506,7 +1521,7 @@
         <v>1244</v>
       </c>
       <c r="C37" t="n">
-        <v>12011</v>
+        <v>12012</v>
       </c>
       <c r="D37" t="n">
         <v>181</v>
@@ -1529,7 +1544,7 @@
         <v>1072</v>
       </c>
       <c r="C38" t="n">
-        <v>13083</v>
+        <v>13084</v>
       </c>
       <c r="D38" t="n">
         <v>198</v>
@@ -1552,7 +1567,7 @@
         <v>1118</v>
       </c>
       <c r="C39" t="n">
-        <v>14201</v>
+        <v>14202</v>
       </c>
       <c r="D39" t="n">
         <v>164</v>
@@ -1575,7 +1590,7 @@
         <v>1308</v>
       </c>
       <c r="C40" t="n">
-        <v>15509</v>
+        <v>15510</v>
       </c>
       <c r="D40" t="n">
         <v>207</v>
@@ -1598,7 +1613,7 @@
         <v>723</v>
       </c>
       <c r="C41" t="n">
-        <v>16232</v>
+        <v>16233</v>
       </c>
       <c r="D41" t="n">
         <v>122</v>
@@ -1621,7 +1636,7 @@
         <v>434</v>
       </c>
       <c r="C42" t="n">
-        <v>16666</v>
+        <v>16667</v>
       </c>
       <c r="D42" t="n">
         <v>121</v>
@@ -1644,7 +1659,7 @@
         <v>1310</v>
       </c>
       <c r="C43" t="n">
-        <v>17976</v>
+        <v>17977</v>
       </c>
       <c r="D43" t="n">
         <v>164</v>
@@ -1667,7 +1682,7 @@
         <v>1137</v>
       </c>
       <c r="C44" t="n">
-        <v>19113</v>
+        <v>19114</v>
       </c>
       <c r="D44" t="n">
         <v>125</v>
@@ -1690,7 +1705,7 @@
         <v>1016</v>
       </c>
       <c r="C45" t="n">
-        <v>20129</v>
+        <v>20130</v>
       </c>
       <c r="D45" t="n">
         <v>97</v>
@@ -1713,7 +1728,7 @@
         <v>878</v>
       </c>
       <c r="C46" t="n">
-        <v>21007</v>
+        <v>21008</v>
       </c>
       <c r="D46" t="n">
         <v>95</v>
@@ -1736,7 +1751,7 @@
         <v>928</v>
       </c>
       <c r="C47" t="n">
-        <v>21935</v>
+        <v>21936</v>
       </c>
       <c r="D47" t="n">
         <v>75</v>
@@ -1759,7 +1774,7 @@
         <v>486</v>
       </c>
       <c r="C48" t="n">
-        <v>22421</v>
+        <v>22422</v>
       </c>
       <c r="D48" t="n">
         <v>56</v>
@@ -1782,7 +1797,7 @@
         <v>281</v>
       </c>
       <c r="C49" t="n">
-        <v>22702</v>
+        <v>22703</v>
       </c>
       <c r="D49" t="n">
         <v>50</v>
@@ -1805,13 +1820,13 @@
         <v>925</v>
       </c>
       <c r="C50" t="n">
-        <v>23627</v>
+        <v>23628</v>
       </c>
       <c r="D50" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E50" t="n">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="F50" t="n">
         <v>50</v>
@@ -1828,13 +1843,13 @@
         <v>715</v>
       </c>
       <c r="C51" t="n">
-        <v>24342</v>
+        <v>24343</v>
       </c>
       <c r="D51" t="n">
         <v>58</v>
       </c>
       <c r="E51" t="n">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="F51" t="n">
         <v>53</v>
@@ -1851,13 +1866,13 @@
         <v>613</v>
       </c>
       <c r="C52" t="n">
-        <v>24955</v>
+        <v>24956</v>
       </c>
       <c r="D52" t="n">
         <v>59</v>
       </c>
       <c r="E52" t="n">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="F52" t="n">
         <v>57</v>
@@ -1874,13 +1889,13 @@
         <v>559</v>
       </c>
       <c r="C53" t="n">
-        <v>25514</v>
+        <v>25515</v>
       </c>
       <c r="D53" t="n">
         <v>57</v>
       </c>
       <c r="E53" t="n">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="F53" t="n">
         <v>44</v>
@@ -1897,13 +1912,13 @@
         <v>309</v>
       </c>
       <c r="C54" t="n">
-        <v>25823</v>
+        <v>25824</v>
       </c>
       <c r="D54" t="n">
         <v>40</v>
       </c>
       <c r="E54" t="n">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="F54" t="n">
         <v>50</v>
@@ -1920,13 +1935,13 @@
         <v>262</v>
       </c>
       <c r="C55" t="n">
-        <v>26085</v>
+        <v>26086</v>
       </c>
       <c r="D55" t="n">
         <v>43</v>
       </c>
       <c r="E55" t="n">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="F55" t="n">
         <v>44</v>
@@ -1943,13 +1958,13 @@
         <v>219</v>
       </c>
       <c r="C56" t="n">
-        <v>26304</v>
+        <v>26305</v>
       </c>
       <c r="D56" t="n">
         <v>32</v>
       </c>
       <c r="E56" t="n">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="F56" t="n">
         <v>36</v>
@@ -1966,13 +1981,13 @@
         <v>245</v>
       </c>
       <c r="C57" t="n">
-        <v>26549</v>
+        <v>26550</v>
       </c>
       <c r="D57" t="n">
         <v>27</v>
       </c>
       <c r="E57" t="n">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="F57" t="n">
         <v>35</v>
@@ -1989,13 +2004,13 @@
         <v>425</v>
       </c>
       <c r="C58" t="n">
-        <v>26974</v>
+        <v>26975</v>
       </c>
       <c r="D58" t="n">
         <v>52</v>
       </c>
       <c r="E58" t="n">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="F58" t="n">
         <v>37</v>
@@ -2012,13 +2027,13 @@
         <v>328</v>
       </c>
       <c r="C59" t="n">
-        <v>27302</v>
+        <v>27303</v>
       </c>
       <c r="D59" t="n">
         <v>32</v>
       </c>
       <c r="E59" t="n">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="F59" t="n">
         <v>37</v>
@@ -2035,13 +2050,13 @@
         <v>321</v>
       </c>
       <c r="C60" t="n">
-        <v>27623</v>
+        <v>27624</v>
       </c>
       <c r="D60" t="n">
         <v>37</v>
       </c>
       <c r="E60" t="n">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="F60" t="n">
         <v>38</v>
@@ -2058,13 +2073,13 @@
         <v>291</v>
       </c>
       <c r="C61" t="n">
-        <v>27914</v>
+        <v>27915</v>
       </c>
       <c r="D61" t="n">
         <v>32</v>
       </c>
       <c r="E61" t="n">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="F61" t="n">
         <v>36</v>
@@ -2081,19 +2096,19 @@
         <v>144</v>
       </c>
       <c r="C62" t="n">
-        <v>28058</v>
+        <v>28059</v>
       </c>
       <c r="D62" t="n">
         <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="F62" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G62" t="n">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="63">
@@ -2104,19 +2119,19 @@
         <v>87</v>
       </c>
       <c r="C63" t="n">
-        <v>28145</v>
+        <v>28146</v>
       </c>
       <c r="D63" t="n">
         <v>23</v>
       </c>
       <c r="E63" t="n">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
       </c>
       <c r="G63" t="n">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="64">
@@ -2127,19 +2142,19 @@
         <v>277</v>
       </c>
       <c r="C64" t="n">
-        <v>28422</v>
+        <v>28423</v>
       </c>
       <c r="D64" t="n">
         <v>23</v>
       </c>
       <c r="E64" t="n">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="F64" t="n">
         <v>37</v>
       </c>
       <c r="G64" t="n">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="65">
@@ -2150,19 +2165,19 @@
         <v>213</v>
       </c>
       <c r="C65" t="n">
-        <v>28635</v>
+        <v>28636</v>
       </c>
       <c r="D65" t="n">
         <v>18</v>
       </c>
       <c r="E65" t="n">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="F65" t="n">
         <v>33</v>
       </c>
       <c r="G65" t="n">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="66">
@@ -2173,10 +2188,10 @@
         <v>156</v>
       </c>
       <c r="C66" t="n">
-        <v>28791</v>
+        <v>28792</v>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E66" t="n">
         <v>3779</v>
@@ -2185,7 +2200,7 @@
         <v>26</v>
       </c>
       <c r="G66" t="n">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="67">
@@ -2196,7 +2211,7 @@
         <v>208</v>
       </c>
       <c r="C67" t="n">
-        <v>28999</v>
+        <v>29000</v>
       </c>
       <c r="D67" t="n">
         <v>9</v>
@@ -2208,7 +2223,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="n">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="68">
@@ -2219,7 +2234,7 @@
         <v>167</v>
       </c>
       <c r="C68" t="n">
-        <v>29166</v>
+        <v>29167</v>
       </c>
       <c r="D68" t="n">
         <v>13</v>
@@ -2231,7 +2246,7 @@
         <v>24</v>
       </c>
       <c r="G68" t="n">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="69">
@@ -2242,7 +2257,7 @@
         <v>87</v>
       </c>
       <c r="C69" t="n">
-        <v>29253</v>
+        <v>29254</v>
       </c>
       <c r="D69" t="n">
         <v>14</v>
@@ -2254,7 +2269,7 @@
         <v>24</v>
       </c>
       <c r="G69" t="n">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="70">
@@ -2265,7 +2280,7 @@
         <v>61</v>
       </c>
       <c r="C70" t="n">
-        <v>29314</v>
+        <v>29315</v>
       </c>
       <c r="D70" t="n">
         <v>6</v>
@@ -2277,7 +2292,7 @@
         <v>13</v>
       </c>
       <c r="G70" t="n">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="71">
@@ -2288,7 +2303,7 @@
         <v>173</v>
       </c>
       <c r="C71" t="n">
-        <v>29487</v>
+        <v>29488</v>
       </c>
       <c r="D71" t="n">
         <v>13</v>
@@ -2300,7 +2315,7 @@
         <v>23</v>
       </c>
       <c r="G71" t="n">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="72">
@@ -2311,7 +2326,7 @@
         <v>153</v>
       </c>
       <c r="C72" t="n">
-        <v>29640</v>
+        <v>29641</v>
       </c>
       <c r="D72" t="n">
         <v>14</v>
@@ -2323,7 +2338,7 @@
         <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="73">
@@ -2334,7 +2349,7 @@
         <v>120</v>
       </c>
       <c r="C73" t="n">
-        <v>29760</v>
+        <v>29761</v>
       </c>
       <c r="D73" t="n">
         <v>11</v>
@@ -2346,7 +2361,7 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="74">
@@ -2357,7 +2372,7 @@
         <v>101</v>
       </c>
       <c r="C74" t="n">
-        <v>29861</v>
+        <v>29862</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
@@ -2369,7 +2384,7 @@
         <v>13</v>
       </c>
       <c r="G74" t="n">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="75">
@@ -2380,7 +2395,7 @@
         <v>83</v>
       </c>
       <c r="C75" t="n">
-        <v>29944</v>
+        <v>29945</v>
       </c>
       <c r="D75" t="n">
         <v>7</v>
@@ -2392,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="G75" t="n">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="76">
@@ -2403,7 +2418,7 @@
         <v>47</v>
       </c>
       <c r="C76" t="n">
-        <v>29991</v>
+        <v>29992</v>
       </c>
       <c r="D76" t="n">
         <v>7</v>
@@ -2415,7 +2430,7 @@
         <v>9</v>
       </c>
       <c r="G76" t="n">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="77">
@@ -2426,7 +2441,7 @@
         <v>23</v>
       </c>
       <c r="C77" t="n">
-        <v>30014</v>
+        <v>30015</v>
       </c>
       <c r="D77" t="n">
         <v>7</v>
@@ -2438,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="G77" t="n">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="78">
@@ -2449,7 +2464,7 @@
         <v>90</v>
       </c>
       <c r="C78" t="n">
-        <v>30104</v>
+        <v>30105</v>
       </c>
       <c r="D78" t="n">
         <v>3</v>
@@ -2461,7 +2476,7 @@
         <v>9</v>
       </c>
       <c r="G78" t="n">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="79">
@@ -2472,7 +2487,7 @@
         <v>73</v>
       </c>
       <c r="C79" t="n">
-        <v>30177</v>
+        <v>30178</v>
       </c>
       <c r="D79" t="n">
         <v>6</v>
@@ -2484,7 +2499,7 @@
         <v>8</v>
       </c>
       <c r="G79" t="n">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="80">
@@ -2495,7 +2510,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="n">
-        <v>30257</v>
+        <v>30258</v>
       </c>
       <c r="D80" t="n">
         <v>2</v>
@@ -2507,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="81">
@@ -2518,7 +2533,7 @@
         <v>46</v>
       </c>
       <c r="C81" t="n">
-        <v>30303</v>
+        <v>30304</v>
       </c>
       <c r="D81" t="n">
         <v>7</v>
@@ -2527,10 +2542,10 @@
         <v>3902</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>1630</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="82">
@@ -2541,7 +2556,7 @@
         <v>59</v>
       </c>
       <c r="C82" t="n">
-        <v>30362</v>
+        <v>30363</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
@@ -2553,7 +2568,7 @@
         <v>7</v>
       </c>
       <c r="G82" t="n">
-        <v>1637</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="83">
@@ -2564,7 +2579,7 @@
         <v>39</v>
       </c>
       <c r="C83" t="n">
-        <v>30401</v>
+        <v>30402</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
@@ -2576,7 +2591,7 @@
         <v>5</v>
       </c>
       <c r="G83" t="n">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="84">
@@ -2587,7 +2602,7 @@
         <v>16</v>
       </c>
       <c r="C84" t="n">
-        <v>30417</v>
+        <v>30418</v>
       </c>
       <c r="D84" t="n">
         <v>6</v>
@@ -2599,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="G84" t="n">
-        <v>1649</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="85">
@@ -2610,7 +2625,7 @@
         <v>47</v>
       </c>
       <c r="C85" t="n">
-        <v>30464</v>
+        <v>30465</v>
       </c>
       <c r="D85" t="n">
         <v>5</v>
@@ -2622,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>1652</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="86">
@@ -2633,7 +2648,7 @@
         <v>43</v>
       </c>
       <c r="C86" t="n">
-        <v>30507</v>
+        <v>30508</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -2645,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>1653</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="87">
@@ -2656,7 +2671,7 @@
         <v>37</v>
       </c>
       <c r="C87" t="n">
-        <v>30544</v>
+        <v>30545</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -2668,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>1654</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="88">
@@ -2679,7 +2694,7 @@
         <v>38</v>
       </c>
       <c r="C88" t="n">
-        <v>30582</v>
+        <v>30583</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
@@ -2691,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>1656</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="89">
@@ -2702,7 +2717,7 @@
         <v>41</v>
       </c>
       <c r="C89" t="n">
-        <v>30623</v>
+        <v>30624</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
@@ -2714,7 +2729,7 @@
         <v>5</v>
       </c>
       <c r="G89" t="n">
-        <v>1661</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="90">
@@ -2725,7 +2740,7 @@
         <v>15</v>
       </c>
       <c r="C90" t="n">
-        <v>30638</v>
+        <v>30639</v>
       </c>
       <c r="D90" t="n">
         <v>3</v>
@@ -2737,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>1662</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="91">
@@ -2748,7 +2763,7 @@
         <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>30650</v>
+        <v>30651</v>
       </c>
       <c r="D91" t="n">
         <v>5</v>
@@ -2760,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="G91" t="n">
-        <v>1666</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="92">
@@ -2771,7 +2786,7 @@
         <v>34</v>
       </c>
       <c r="C92" t="n">
-        <v>30684</v>
+        <v>30685</v>
       </c>
       <c r="D92" t="n">
         <v>4</v>
@@ -2783,7 +2798,7 @@
         <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>1669</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="93">
@@ -2794,7 +2809,7 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>30720</v>
+        <v>30721</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2806,7 +2821,7 @@
         <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>1673</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="94">
@@ -2817,7 +2832,7 @@
         <v>29</v>
       </c>
       <c r="C94" t="n">
-        <v>30749</v>
+        <v>30750</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
@@ -2829,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1673</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="95">
@@ -2840,7 +2855,7 @@
         <v>11</v>
       </c>
       <c r="C95" t="n">
-        <v>30760</v>
+        <v>30761</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -2852,7 +2867,7 @@
         <v>5</v>
       </c>
       <c r="G95" t="n">
-        <v>1678</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="96">
@@ -2863,7 +2878,7 @@
         <v>20</v>
       </c>
       <c r="C96" t="n">
-        <v>30780</v>
+        <v>30781</v>
       </c>
       <c r="D96" t="n">
         <v>4</v>
@@ -2875,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>1679</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="97">
@@ -2886,7 +2901,7 @@
         <v>16</v>
       </c>
       <c r="C97" t="n">
-        <v>30796</v>
+        <v>30797</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -2898,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>1680</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="98">
@@ -2909,7 +2924,7 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>30806</v>
+        <v>30807</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2921,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1680</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="99">
@@ -2932,7 +2947,7 @@
         <v>15</v>
       </c>
       <c r="C99" t="n">
-        <v>30821</v>
+        <v>30822</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2944,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>1682</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="100">
@@ -2955,7 +2970,7 @@
         <v>19</v>
       </c>
       <c r="C100" t="n">
-        <v>30840</v>
+        <v>30841</v>
       </c>
       <c r="D100" t="n">
         <v>5</v>
@@ -2967,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="101">
@@ -2978,7 +2993,7 @@
         <v>25</v>
       </c>
       <c r="C101" t="n">
-        <v>30865</v>
+        <v>30866</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2990,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="102">
@@ -3001,7 +3016,7 @@
         <v>30</v>
       </c>
       <c r="C102" t="n">
-        <v>30895</v>
+        <v>30896</v>
       </c>
       <c r="D102" t="n">
         <v>4</v>
@@ -3013,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="103">
@@ -3024,7 +3039,7 @@
         <v>21</v>
       </c>
       <c r="C103" t="n">
-        <v>30916</v>
+        <v>30917</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -3036,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="104">
@@ -3047,7 +3062,7 @@
         <v>11</v>
       </c>
       <c r="C104" t="n">
-        <v>30927</v>
+        <v>30928</v>
       </c>
       <c r="D104" t="n">
         <v>3</v>
@@ -3059,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="105">
@@ -3070,7 +3085,7 @@
         <v>7</v>
       </c>
       <c r="C105" t="n">
-        <v>30934</v>
+        <v>30935</v>
       </c>
       <c r="D105" t="n">
         <v>3</v>
@@ -3082,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="106">
@@ -3093,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>30937</v>
+        <v>30938</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -3105,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="107">
@@ -3116,7 +3131,7 @@
         <v>22</v>
       </c>
       <c r="C107" t="n">
-        <v>30959</v>
+        <v>30960</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -3128,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="108">
@@ -3139,7 +3154,7 @@
         <v>23</v>
       </c>
       <c r="C108" t="n">
-        <v>30982</v>
+        <v>30983</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -3151,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="109">
@@ -3162,7 +3177,7 @@
         <v>17</v>
       </c>
       <c r="C109" t="n">
-        <v>30999</v>
+        <v>31000</v>
       </c>
       <c r="D109" t="n">
         <v>3</v>
@@ -3174,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="110">
@@ -3185,7 +3200,7 @@
         <v>15</v>
       </c>
       <c r="C110" t="n">
-        <v>31014</v>
+        <v>31015</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -3197,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="111">
@@ -3208,7 +3223,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="n">
-        <v>31024</v>
+        <v>31025</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -3220,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="112">
@@ -3231,7 +3246,7 @@
         <v>8</v>
       </c>
       <c r="C112" t="n">
-        <v>31032</v>
+        <v>31033</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -3243,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="113">
@@ -3254,7 +3269,7 @@
         <v>25</v>
       </c>
       <c r="C113" t="n">
-        <v>31057</v>
+        <v>31058</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -3266,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>1686</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="114">
@@ -3277,7 +3292,7 @@
         <v>11</v>
       </c>
       <c r="C114" t="n">
-        <v>31068</v>
+        <v>31069</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -3289,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1686</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="115">
@@ -3300,7 +3315,7 @@
         <v>24</v>
       </c>
       <c r="C115" t="n">
-        <v>31092</v>
+        <v>31093</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -3312,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>1687</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="116">
@@ -3323,7 +3338,7 @@
         <v>25</v>
       </c>
       <c r="C116" t="n">
-        <v>31117</v>
+        <v>31118</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -3335,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1687</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="117">
@@ -3346,7 +3361,7 @@
         <v>34</v>
       </c>
       <c r="C117" t="n">
-        <v>31151</v>
+        <v>31152</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -3358,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1687</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="118">
@@ -3369,7 +3384,7 @@
         <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>31160</v>
+        <v>31161</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -3381,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>1688</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="119">
@@ -3392,7 +3407,7 @@
         <v>12</v>
       </c>
       <c r="C119" t="n">
-        <v>31172</v>
+        <v>31173</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -3404,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1688</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="120">
@@ -3415,7 +3430,7 @@
         <v>32</v>
       </c>
       <c r="C120" t="n">
-        <v>31204</v>
+        <v>31205</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -3427,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1688</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="121">
@@ -3438,7 +3453,7 @@
         <v>21</v>
       </c>
       <c r="C121" t="n">
-        <v>31225</v>
+        <v>31226</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -3450,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>1689</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="122">
@@ -3461,7 +3476,7 @@
         <v>18</v>
       </c>
       <c r="C122" t="n">
-        <v>31243</v>
+        <v>31244</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -3473,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1689</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="123">
@@ -3484,7 +3499,7 @@
         <v>18</v>
       </c>
       <c r="C123" t="n">
-        <v>31261</v>
+        <v>31262</v>
       </c>
       <c r="D123" t="n">
         <v>3</v>
@@ -3496,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1689</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="124">
@@ -3507,7 +3522,7 @@
         <v>37</v>
       </c>
       <c r="C124" t="n">
-        <v>31298</v>
+        <v>31299</v>
       </c>
       <c r="D124" t="n">
         <v>3</v>
@@ -3519,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1689</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="125">
@@ -3530,7 +3545,7 @@
         <v>32</v>
       </c>
       <c r="C125" t="n">
-        <v>31330</v>
+        <v>31331</v>
       </c>
       <c r="D125" t="n">
         <v>6</v>
@@ -3542,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1689</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="126">
@@ -3553,7 +3568,7 @@
         <v>13</v>
       </c>
       <c r="C126" t="n">
-        <v>31343</v>
+        <v>31344</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -3565,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>1690</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="127">
@@ -3576,19 +3591,19 @@
         <v>56</v>
       </c>
       <c r="C127" t="n">
-        <v>31399</v>
+        <v>31400</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="128">
@@ -3599,19 +3614,19 @@
         <v>37</v>
       </c>
       <c r="C128" t="n">
-        <v>31436</v>
+        <v>31437</v>
       </c>
       <c r="D128" t="n">
         <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="129">
@@ -3622,19 +3637,19 @@
         <v>64</v>
       </c>
       <c r="C129" t="n">
-        <v>31500</v>
+        <v>31501</v>
       </c>
       <c r="D129" t="n">
         <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="130">
@@ -3645,19 +3660,19 @@
         <v>48</v>
       </c>
       <c r="C130" t="n">
-        <v>31548</v>
+        <v>31549</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="131">
@@ -3668,19 +3683,19 @@
         <v>92</v>
       </c>
       <c r="C131" t="n">
-        <v>31640</v>
+        <v>31641</v>
       </c>
       <c r="D131" t="n">
         <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="132">
@@ -3691,19 +3706,19 @@
         <v>36</v>
       </c>
       <c r="C132" t="n">
-        <v>31676</v>
+        <v>31677</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="133">
@@ -3714,19 +3729,19 @@
         <v>22</v>
       </c>
       <c r="C133" t="n">
-        <v>31698</v>
+        <v>31699</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="134">
@@ -3737,19 +3752,19 @@
         <v>158</v>
       </c>
       <c r="C134" t="n">
-        <v>31856</v>
+        <v>31857</v>
       </c>
       <c r="D134" t="n">
         <v>5</v>
       </c>
       <c r="E134" t="n">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>1692</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="135">
@@ -3760,19 +3775,19 @@
         <v>136</v>
       </c>
       <c r="C135" t="n">
-        <v>31992</v>
+        <v>31993</v>
       </c>
       <c r="D135" t="n">
         <v>8</v>
       </c>
       <c r="E135" t="n">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>1692</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="136">
@@ -3783,19 +3798,19 @@
         <v>102</v>
       </c>
       <c r="C136" t="n">
-        <v>32094</v>
+        <v>32095</v>
       </c>
       <c r="D136" t="n">
         <v>6</v>
       </c>
       <c r="E136" t="n">
-        <v>4032</v>
+        <v>4033</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>1693</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="137">
@@ -3806,19 +3821,19 @@
         <v>127</v>
       </c>
       <c r="C137" t="n">
-        <v>32221</v>
+        <v>32222</v>
       </c>
       <c r="D137" t="n">
         <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1693</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="138">
@@ -3829,19 +3844,19 @@
         <v>96</v>
       </c>
       <c r="C138" t="n">
-        <v>32317</v>
+        <v>32318</v>
       </c>
       <c r="D138" t="n">
         <v>5</v>
       </c>
       <c r="E138" t="n">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1693</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="139">
@@ -3852,19 +3867,19 @@
         <v>26</v>
       </c>
       <c r="C139" t="n">
-        <v>32343</v>
+        <v>32344</v>
       </c>
       <c r="D139" t="n">
         <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1693</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="140">
@@ -3875,19 +3890,19 @@
         <v>37</v>
       </c>
       <c r="C140" t="n">
-        <v>32380</v>
+        <v>32381</v>
       </c>
       <c r="D140" t="n">
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1693</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="141">
@@ -3898,19 +3913,19 @@
         <v>105</v>
       </c>
       <c r="C141" t="n">
-        <v>32485</v>
+        <v>32486</v>
       </c>
       <c r="D141" t="n">
         <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1693</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="142">
@@ -3921,19 +3936,19 @@
         <v>107</v>
       </c>
       <c r="C142" t="n">
-        <v>32592</v>
+        <v>32593</v>
       </c>
       <c r="D142" t="n">
         <v>6</v>
       </c>
       <c r="E142" t="n">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1693</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="143">
@@ -3944,19 +3959,19 @@
         <v>96</v>
       </c>
       <c r="C143" t="n">
-        <v>32688</v>
+        <v>32689</v>
       </c>
       <c r="D143" t="n">
         <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="F143" t="n">
         <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="144">
@@ -3967,19 +3982,19 @@
         <v>97</v>
       </c>
       <c r="C144" t="n">
-        <v>32785</v>
+        <v>32786</v>
       </c>
       <c r="D144" t="n">
         <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="145">
@@ -3990,19 +4005,19 @@
         <v>111</v>
       </c>
       <c r="C145" t="n">
-        <v>32896</v>
+        <v>32897</v>
       </c>
       <c r="D145" t="n">
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="146">
@@ -4013,19 +4028,19 @@
         <v>70</v>
       </c>
       <c r="C146" t="n">
-        <v>32966</v>
+        <v>32967</v>
       </c>
       <c r="D146" t="n">
         <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>4089</v>
+        <v>4090</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="147">
@@ -4036,19 +4051,19 @@
         <v>46</v>
       </c>
       <c r="C147" t="n">
-        <v>33012</v>
+        <v>33013</v>
       </c>
       <c r="D147" t="n">
         <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="148">
@@ -4059,19 +4074,19 @@
         <v>120</v>
       </c>
       <c r="C148" t="n">
-        <v>33132</v>
+        <v>33133</v>
       </c>
       <c r="D148" t="n">
         <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>1696</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="149">
@@ -4082,19 +4097,19 @@
         <v>128</v>
       </c>
       <c r="C149" t="n">
-        <v>33260</v>
+        <v>33261</v>
       </c>
       <c r="D149" t="n">
         <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1696</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="150">
@@ -4105,19 +4120,19 @@
         <v>122</v>
       </c>
       <c r="C150" t="n">
-        <v>33382</v>
+        <v>33383</v>
       </c>
       <c r="D150" t="n">
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>1697</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="151">
@@ -4128,19 +4143,19 @@
         <v>106</v>
       </c>
       <c r="C151" t="n">
-        <v>33488</v>
+        <v>33489</v>
       </c>
       <c r="D151" t="n">
         <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>1698</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="152">
@@ -4151,19 +4166,19 @@
         <v>115</v>
       </c>
       <c r="C152" t="n">
-        <v>33603</v>
+        <v>33604</v>
       </c>
       <c r="D152" t="n">
         <v>6</v>
       </c>
       <c r="E152" t="n">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>1699</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="153">
@@ -4174,19 +4189,19 @@
         <v>80</v>
       </c>
       <c r="C153" t="n">
-        <v>33683</v>
+        <v>33684</v>
       </c>
       <c r="D153" t="n">
         <v>6</v>
       </c>
       <c r="E153" t="n">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>1699</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="154">
@@ -4197,19 +4212,19 @@
         <v>41</v>
       </c>
       <c r="C154" t="n">
-        <v>33724</v>
+        <v>33725</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>1699</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="155">
@@ -4220,19 +4235,19 @@
         <v>127</v>
       </c>
       <c r="C155" t="n">
-        <v>33851</v>
+        <v>33852</v>
       </c>
       <c r="D155" t="n">
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="F155" t="n">
         <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>1701</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="156">
@@ -4243,19 +4258,19 @@
         <v>138</v>
       </c>
       <c r="C156" t="n">
-        <v>33989</v>
+        <v>33990</v>
       </c>
       <c r="D156" t="n">
         <v>6</v>
       </c>
       <c r="E156" t="n">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>1702</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="157">
@@ -4266,19 +4281,19 @@
         <v>117</v>
       </c>
       <c r="C157" t="n">
-        <v>34106</v>
+        <v>34107</v>
       </c>
       <c r="D157" t="n">
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1702</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="158">
@@ -4289,19 +4304,19 @@
         <v>143</v>
       </c>
       <c r="C158" t="n">
-        <v>34249</v>
+        <v>34250</v>
       </c>
       <c r="D158" t="n">
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>1702</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="159">
@@ -4312,19 +4327,19 @@
         <v>148</v>
       </c>
       <c r="C159" t="n">
-        <v>34397</v>
+        <v>34398</v>
       </c>
       <c r="D159" t="n">
         <v>14</v>
       </c>
       <c r="E159" t="n">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>1703</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="160">
@@ -4335,19 +4350,19 @@
         <v>95</v>
       </c>
       <c r="C160" t="n">
-        <v>34492</v>
+        <v>34493</v>
       </c>
       <c r="D160" t="n">
         <v>10</v>
       </c>
       <c r="E160" t="n">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>1704</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="161">
@@ -4358,19 +4373,19 @@
         <v>57</v>
       </c>
       <c r="C161" t="n">
-        <v>34549</v>
+        <v>34550</v>
       </c>
       <c r="D161" t="n">
         <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1704</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="162">
@@ -4381,19 +4396,19 @@
         <v>193</v>
       </c>
       <c r="C162" t="n">
-        <v>34742</v>
+        <v>34743</v>
       </c>
       <c r="D162" t="n">
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>1705</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="163">
@@ -4404,19 +4419,19 @@
         <v>188</v>
       </c>
       <c r="C163" t="n">
-        <v>34930</v>
+        <v>34931</v>
       </c>
       <c r="D163" t="n">
         <v>12</v>
       </c>
       <c r="E163" t="n">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>1706</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="164">
@@ -4427,19 +4442,19 @@
         <v>220</v>
       </c>
       <c r="C164" t="n">
-        <v>35150</v>
+        <v>35151</v>
       </c>
       <c r="D164" t="n">
         <v>14</v>
       </c>
       <c r="E164" t="n">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1706</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="165">
@@ -4450,19 +4465,19 @@
         <v>211</v>
       </c>
       <c r="C165" t="n">
-        <v>35361</v>
+        <v>35362</v>
       </c>
       <c r="D165" t="n">
         <v>5</v>
       </c>
       <c r="E165" t="n">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>1706</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="166">
@@ -4473,19 +4488,19 @@
         <v>163</v>
       </c>
       <c r="C166" t="n">
-        <v>35524</v>
+        <v>35525</v>
       </c>
       <c r="D166" t="n">
         <v>8</v>
       </c>
       <c r="E166" t="n">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="F166" t="n">
         <v>2</v>
       </c>
       <c r="G166" t="n">
-        <v>1708</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="167">
@@ -4496,19 +4511,19 @@
         <v>96</v>
       </c>
       <c r="C167" t="n">
-        <v>35620</v>
+        <v>35621</v>
       </c>
       <c r="D167" t="n">
         <v>6</v>
       </c>
       <c r="E167" t="n">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>1709</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="168">
@@ -4519,19 +4534,19 @@
         <v>80</v>
       </c>
       <c r="C168" t="n">
-        <v>35700</v>
+        <v>35701</v>
       </c>
       <c r="D168" t="n">
         <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1709</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="169">
@@ -4542,19 +4557,19 @@
         <v>196</v>
       </c>
       <c r="C169" t="n">
-        <v>35896</v>
+        <v>35897</v>
       </c>
       <c r="D169" t="n">
         <v>4</v>
       </c>
       <c r="E169" t="n">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>1709</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="170">
@@ -4565,19 +4580,19 @@
         <v>181</v>
       </c>
       <c r="C170" t="n">
-        <v>36077</v>
+        <v>36078</v>
       </c>
       <c r="D170" t="n">
         <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>1710</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="171">
@@ -4588,19 +4603,19 @@
         <v>152</v>
       </c>
       <c r="C171" t="n">
-        <v>36229</v>
+        <v>36230</v>
       </c>
       <c r="D171" t="n">
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>1711</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="172">
@@ -4611,19 +4626,19 @@
         <v>156</v>
       </c>
       <c r="C172" t="n">
-        <v>36385</v>
+        <v>36386</v>
       </c>
       <c r="D172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="n">
-        <v>4271</v>
+        <v>4273</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>1712</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="173">
@@ -4634,19 +4649,19 @@
         <v>184</v>
       </c>
       <c r="C173" t="n">
-        <v>36569</v>
+        <v>36570</v>
       </c>
       <c r="D173" t="n">
         <v>6</v>
       </c>
       <c r="E173" t="n">
-        <v>4277</v>
+        <v>4279</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>1713</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="174">
@@ -4657,19 +4672,19 @@
         <v>130</v>
       </c>
       <c r="C174" t="n">
-        <v>36699</v>
+        <v>36700</v>
       </c>
       <c r="D174" t="n">
         <v>8</v>
       </c>
       <c r="E174" t="n">
-        <v>4285</v>
+        <v>4287</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>1714</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="175">
@@ -4680,19 +4695,19 @@
         <v>99</v>
       </c>
       <c r="C175" t="n">
-        <v>36798</v>
+        <v>36799</v>
       </c>
       <c r="D175" t="n">
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>4292</v>
+        <v>4294</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1714</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="176">
@@ -4703,19 +4718,19 @@
         <v>281</v>
       </c>
       <c r="C176" t="n">
-        <v>37079</v>
+        <v>37080</v>
       </c>
       <c r="D176" t="n">
         <v>8</v>
       </c>
       <c r="E176" t="n">
-        <v>4300</v>
+        <v>4302</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>1715</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="177">
@@ -4726,19 +4741,19 @@
         <v>255</v>
       </c>
       <c r="C177" t="n">
-        <v>37334</v>
+        <v>37335</v>
       </c>
       <c r="D177" t="n">
         <v>4</v>
       </c>
       <c r="E177" t="n">
-        <v>4304</v>
+        <v>4306</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1715</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="178">
@@ -4749,19 +4764,19 @@
         <v>247</v>
       </c>
       <c r="C178" t="n">
-        <v>37581</v>
+        <v>37582</v>
       </c>
       <c r="D178" t="n">
         <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>4309</v>
+        <v>4311</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1715</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="179">
@@ -4772,19 +4787,19 @@
         <v>273</v>
       </c>
       <c r="C179" t="n">
-        <v>37854</v>
+        <v>37855</v>
       </c>
       <c r="D179" t="n">
         <v>9</v>
       </c>
       <c r="E179" t="n">
-        <v>4318</v>
+        <v>4320</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>1716</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="180">
@@ -4795,19 +4810,19 @@
         <v>234</v>
       </c>
       <c r="C180" t="n">
-        <v>38088</v>
+        <v>38089</v>
       </c>
       <c r="D180" t="n">
         <v>6</v>
       </c>
       <c r="E180" t="n">
-        <v>4324</v>
+        <v>4326</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>1716</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="181">
@@ -4818,19 +4833,19 @@
         <v>149</v>
       </c>
       <c r="C181" t="n">
-        <v>38237</v>
+        <v>38238</v>
       </c>
       <c r="D181" t="n">
         <v>8</v>
       </c>
       <c r="E181" t="n">
-        <v>4332</v>
+        <v>4334</v>
       </c>
       <c r="F181" t="n">
         <v>3</v>
       </c>
       <c r="G181" t="n">
-        <v>1719</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="182">
@@ -4841,19 +4856,19 @@
         <v>141</v>
       </c>
       <c r="C182" t="n">
-        <v>38378</v>
+        <v>38379</v>
       </c>
       <c r="D182" t="n">
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>4339</v>
+        <v>4341</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>1719</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="183">
@@ -4864,19 +4879,19 @@
         <v>286</v>
       </c>
       <c r="C183" t="n">
-        <v>38664</v>
+        <v>38665</v>
       </c>
       <c r="D183" t="n">
         <v>9</v>
       </c>
       <c r="E183" t="n">
-        <v>4348</v>
+        <v>4350</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>1720</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="184">
@@ -4887,19 +4902,19 @@
         <v>295</v>
       </c>
       <c r="C184" t="n">
-        <v>38959</v>
+        <v>38960</v>
       </c>
       <c r="D184" t="n">
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>4355</v>
+        <v>4357</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>1720</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="185">
@@ -4910,19 +4925,19 @@
         <v>284</v>
       </c>
       <c r="C185" t="n">
-        <v>39243</v>
+        <v>39244</v>
       </c>
       <c r="D185" t="n">
         <v>6</v>
       </c>
       <c r="E185" t="n">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>1720</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="186">
@@ -4933,19 +4948,19 @@
         <v>350</v>
       </c>
       <c r="C186" t="n">
-        <v>39593</v>
+        <v>39594</v>
       </c>
       <c r="D186" t="n">
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>4368</v>
+        <v>4370</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1720</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="187">
@@ -4956,19 +4971,19 @@
         <v>314</v>
       </c>
       <c r="C187" t="n">
-        <v>39907</v>
+        <v>39908</v>
       </c>
       <c r="D187" t="n">
         <v>8</v>
       </c>
       <c r="E187" t="n">
-        <v>4376</v>
+        <v>4378</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>1721</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="188">
@@ -4979,19 +4994,19 @@
         <v>193</v>
       </c>
       <c r="C188" t="n">
-        <v>40100</v>
+        <v>40101</v>
       </c>
       <c r="D188" t="n">
         <v>4</v>
       </c>
       <c r="E188" t="n">
-        <v>4380</v>
+        <v>4382</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>1722</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="189">
@@ -5002,19 +5017,19 @@
         <v>136</v>
       </c>
       <c r="C189" t="n">
-        <v>40236</v>
+        <v>40237</v>
       </c>
       <c r="D189" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>4386</v>
+        <v>4389</v>
       </c>
       <c r="F189" t="n">
         <v>2</v>
       </c>
       <c r="G189" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="190">
@@ -5025,19 +5040,19 @@
         <v>306</v>
       </c>
       <c r="C190" t="n">
-        <v>40542</v>
+        <v>40543</v>
       </c>
       <c r="D190" t="n">
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>4393</v>
+        <v>4396</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>1725</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="191">
@@ -5048,19 +5063,19 @@
         <v>337</v>
       </c>
       <c r="C191" t="n">
-        <v>40879</v>
+        <v>40880</v>
       </c>
       <c r="D191" t="n">
         <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>4398</v>
+        <v>4401</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1725</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="192">
@@ -5071,19 +5086,19 @@
         <v>362</v>
       </c>
       <c r="C192" t="n">
-        <v>41241</v>
+        <v>41242</v>
       </c>
       <c r="D192" t="n">
         <v>6</v>
       </c>
       <c r="E192" t="n">
-        <v>4404</v>
+        <v>4407</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1725</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="193">
@@ -5094,19 +5109,19 @@
         <v>352</v>
       </c>
       <c r="C193" t="n">
-        <v>41593</v>
+        <v>41594</v>
       </c>
       <c r="D193" t="n">
         <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>4409</v>
+        <v>4412</v>
       </c>
       <c r="F193" t="n">
         <v>2</v>
       </c>
       <c r="G193" t="n">
-        <v>1727</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="194">
@@ -5117,19 +5132,19 @@
         <v>374</v>
       </c>
       <c r="C194" t="n">
-        <v>41967</v>
+        <v>41968</v>
       </c>
       <c r="D194" t="n">
         <v>9</v>
       </c>
       <c r="E194" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1727</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="195">
@@ -5140,19 +5155,19 @@
         <v>216</v>
       </c>
       <c r="C195" t="n">
-        <v>42183</v>
+        <v>42184</v>
       </c>
       <c r="D195" t="n">
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>4420</v>
+        <v>4423</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1727</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="196">
@@ -5163,19 +5178,19 @@
         <v>144</v>
       </c>
       <c r="C196" t="n">
-        <v>42327</v>
+        <v>42328</v>
       </c>
       <c r="D196" t="n">
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>4427</v>
+        <v>4430</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>1728</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="197">
@@ -5186,19 +5201,19 @@
         <v>346</v>
       </c>
       <c r="C197" t="n">
-        <v>42673</v>
+        <v>42674</v>
       </c>
       <c r="D197" t="n">
         <v>5</v>
       </c>
       <c r="E197" t="n">
-        <v>4432</v>
+        <v>4435</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>1729</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="198">
@@ -5209,19 +5224,19 @@
         <v>364</v>
       </c>
       <c r="C198" t="n">
-        <v>43037</v>
+        <v>43038</v>
       </c>
       <c r="D198" t="n">
         <v>10</v>
       </c>
       <c r="E198" t="n">
-        <v>4442</v>
+        <v>4445</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>1730</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="199">
@@ -5232,19 +5247,19 @@
         <v>415</v>
       </c>
       <c r="C199" t="n">
-        <v>43452</v>
+        <v>43453</v>
       </c>
       <c r="D199" t="n">
         <v>10</v>
       </c>
       <c r="E199" t="n">
-        <v>4452</v>
+        <v>4455</v>
       </c>
       <c r="F199" t="n">
         <v>3</v>
       </c>
       <c r="G199" t="n">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="200">
@@ -5255,19 +5270,19 @@
         <v>436</v>
       </c>
       <c r="C200" t="n">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="D200" t="n">
         <v>8</v>
       </c>
       <c r="E200" t="n">
-        <v>4460</v>
+        <v>4463</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>1734</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="201">
@@ -5278,19 +5293,19 @@
         <v>424</v>
       </c>
       <c r="C201" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="D201" t="n">
         <v>9</v>
       </c>
       <c r="E201" t="n">
-        <v>4469</v>
+        <v>4472</v>
       </c>
       <c r="F201" t="n">
         <v>2</v>
       </c>
       <c r="G201" t="n">
-        <v>1736</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="202">
@@ -5301,19 +5316,19 @@
         <v>293</v>
       </c>
       <c r="C202" t="n">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="D202" t="n">
         <v>8</v>
       </c>
       <c r="E202" t="n">
-        <v>4477</v>
+        <v>4480</v>
       </c>
       <c r="F202" t="n">
         <v>2</v>
       </c>
       <c r="G202" t="n">
-        <v>1738</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="203">
@@ -5324,19 +5339,19 @@
         <v>170</v>
       </c>
       <c r="C203" t="n">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="D203" t="n">
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>4484</v>
+        <v>4487</v>
       </c>
       <c r="F203" t="n">
         <v>3</v>
       </c>
       <c r="G203" t="n">
-        <v>1741</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="204">
@@ -5347,19 +5362,19 @@
         <v>466</v>
       </c>
       <c r="C204" t="n">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="D204" t="n">
         <v>14</v>
       </c>
       <c r="E204" t="n">
-        <v>4498</v>
+        <v>4501</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>1742</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="205">
@@ -5370,19 +5385,19 @@
         <v>388</v>
       </c>
       <c r="C205" t="n">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="D205" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E205" t="n">
-        <v>4503</v>
+        <v>4507</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="206">
@@ -5393,19 +5408,19 @@
         <v>461</v>
       </c>
       <c r="C206" t="n">
-        <v>46090</v>
+        <v>46091</v>
       </c>
       <c r="D206" t="n">
         <v>11</v>
       </c>
       <c r="E206" t="n">
-        <v>4514</v>
+        <v>4518</v>
       </c>
       <c r="F206" t="n">
         <v>7</v>
       </c>
       <c r="G206" t="n">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="207">
@@ -5416,19 +5431,19 @@
         <v>506</v>
       </c>
       <c r="C207" t="n">
-        <v>46596</v>
+        <v>46597</v>
       </c>
       <c r="D207" t="n">
         <v>17</v>
       </c>
       <c r="E207" t="n">
-        <v>4531</v>
+        <v>4535</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="208">
@@ -5439,19 +5454,19 @@
         <v>531</v>
       </c>
       <c r="C208" t="n">
-        <v>47127</v>
+        <v>47128</v>
       </c>
       <c r="D208" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E208" t="n">
-        <v>4542</v>
+        <v>4547</v>
       </c>
       <c r="F208" t="n">
         <v>4</v>
       </c>
       <c r="G208" t="n">
-        <v>1754</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="209">
@@ -5462,19 +5477,19 @@
         <v>266</v>
       </c>
       <c r="C209" t="n">
-        <v>47393</v>
+        <v>47394</v>
       </c>
       <c r="D209" t="n">
         <v>13</v>
       </c>
       <c r="E209" t="n">
-        <v>4555</v>
+        <v>4560</v>
       </c>
       <c r="F209" t="n">
         <v>3</v>
       </c>
       <c r="G209" t="n">
-        <v>1757</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="210">
@@ -5485,19 +5500,19 @@
         <v>238</v>
       </c>
       <c r="C210" t="n">
-        <v>47631</v>
+        <v>47632</v>
       </c>
       <c r="D210" t="n">
         <v>11</v>
       </c>
       <c r="E210" t="n">
-        <v>4566</v>
+        <v>4571</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>1758</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="211">
@@ -5508,19 +5523,19 @@
         <v>502</v>
       </c>
       <c r="C211" t="n">
-        <v>48133</v>
+        <v>48134</v>
       </c>
       <c r="D211" t="n">
         <v>10</v>
       </c>
       <c r="E211" t="n">
-        <v>4576</v>
+        <v>4581</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>1758</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="212">
@@ -5531,19 +5546,19 @@
         <v>458</v>
       </c>
       <c r="C212" t="n">
-        <v>48591</v>
+        <v>48592</v>
       </c>
       <c r="D212" t="n">
         <v>10</v>
       </c>
       <c r="E212" t="n">
-        <v>4586</v>
+        <v>4591</v>
       </c>
       <c r="F212" t="n">
         <v>3</v>
       </c>
       <c r="G212" t="n">
-        <v>1761</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="213">
@@ -5554,19 +5569,19 @@
         <v>516</v>
       </c>
       <c r="C213" t="n">
-        <v>49107</v>
+        <v>49108</v>
       </c>
       <c r="D213" t="n">
         <v>19</v>
       </c>
       <c r="E213" t="n">
-        <v>4605</v>
+        <v>4610</v>
       </c>
       <c r="F213" t="n">
         <v>5</v>
       </c>
       <c r="G213" t="n">
-        <v>1766</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="214">
@@ -5577,19 +5592,19 @@
         <v>498</v>
       </c>
       <c r="C214" t="n">
-        <v>49605</v>
+        <v>49606</v>
       </c>
       <c r="D214" t="n">
         <v>9</v>
       </c>
       <c r="E214" t="n">
-        <v>4614</v>
+        <v>4619</v>
       </c>
       <c r="F214" t="n">
         <v>4</v>
       </c>
       <c r="G214" t="n">
-        <v>1770</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="215">
@@ -5600,19 +5615,19 @@
         <v>445</v>
       </c>
       <c r="C215" t="n">
-        <v>50050</v>
+        <v>50051</v>
       </c>
       <c r="D215" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E215" t="n">
-        <v>4629</v>
+        <v>4635</v>
       </c>
       <c r="F215" t="n">
         <v>2</v>
       </c>
       <c r="G215" t="n">
-        <v>1772</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="216">
@@ -5623,19 +5638,19 @@
         <v>285</v>
       </c>
       <c r="C216" t="n">
-        <v>50335</v>
+        <v>50336</v>
       </c>
       <c r="D216" t="n">
         <v>8</v>
       </c>
       <c r="E216" t="n">
-        <v>4637</v>
+        <v>4643</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="217">
@@ -5646,19 +5661,19 @@
         <v>201</v>
       </c>
       <c r="C217" t="n">
-        <v>50536</v>
+        <v>50537</v>
       </c>
       <c r="D217" t="n">
         <v>11</v>
       </c>
       <c r="E217" t="n">
-        <v>4648</v>
+        <v>4654</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="218">
@@ -5669,19 +5684,19 @@
         <v>395</v>
       </c>
       <c r="C218" t="n">
-        <v>50931</v>
+        <v>50932</v>
       </c>
       <c r="D218" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E218" t="n">
-        <v>4662</v>
+        <v>4670</v>
       </c>
       <c r="F218" t="n">
         <v>3</v>
       </c>
       <c r="G218" t="n">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="219">
@@ -5692,19 +5707,19 @@
         <v>425</v>
       </c>
       <c r="C219" t="n">
-        <v>51356</v>
+        <v>51357</v>
       </c>
       <c r="D219" t="n">
         <v>5</v>
       </c>
       <c r="E219" t="n">
-        <v>4667</v>
+        <v>4675</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="220">
@@ -5715,19 +5730,19 @@
         <v>385</v>
       </c>
       <c r="C220" t="n">
-        <v>51741</v>
+        <v>51742</v>
       </c>
       <c r="D220" t="n">
         <v>11</v>
       </c>
       <c r="E220" t="n">
-        <v>4678</v>
+        <v>4686</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
       </c>
       <c r="G220" t="n">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="221">
@@ -5738,19 +5753,19 @@
         <v>309</v>
       </c>
       <c r="C221" t="n">
-        <v>52050</v>
+        <v>52051</v>
       </c>
       <c r="D221" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E221" t="n">
-        <v>4688</v>
+        <v>4697</v>
       </c>
       <c r="F221" t="n">
         <v>3</v>
       </c>
       <c r="G221" t="n">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="222">
@@ -5761,19 +5776,19 @@
         <v>359</v>
       </c>
       <c r="C222" t="n">
-        <v>52409</v>
+        <v>52410</v>
       </c>
       <c r="D222" t="n">
         <v>10</v>
       </c>
       <c r="E222" t="n">
-        <v>4698</v>
+        <v>4707</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>1782</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="223">
@@ -5784,19 +5799,19 @@
         <v>222</v>
       </c>
       <c r="C223" t="n">
-        <v>52631</v>
+        <v>52632</v>
       </c>
       <c r="D223" t="n">
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>4705</v>
+        <v>4714</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
       </c>
       <c r="G223" t="n">
-        <v>1784</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="224">
@@ -5807,19 +5822,19 @@
         <v>120</v>
       </c>
       <c r="C224" t="n">
-        <v>52751</v>
+        <v>52752</v>
       </c>
       <c r="D224" t="n">
         <v>17</v>
       </c>
       <c r="E224" t="n">
-        <v>4722</v>
+        <v>4731</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>1785</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="225">
@@ -5830,19 +5845,19 @@
         <v>367</v>
       </c>
       <c r="C225" t="n">
-        <v>53118</v>
+        <v>53119</v>
       </c>
       <c r="D225" t="n">
         <v>13</v>
       </c>
       <c r="E225" t="n">
-        <v>4735</v>
+        <v>4744</v>
       </c>
       <c r="F225" t="n">
         <v>3</v>
       </c>
       <c r="G225" t="n">
-        <v>1788</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="226">
@@ -5853,19 +5868,19 @@
         <v>448</v>
       </c>
       <c r="C226" t="n">
-        <v>53566</v>
+        <v>53567</v>
       </c>
       <c r="D226" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E226" t="n">
-        <v>4754</v>
+        <v>4764</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="227">
@@ -5876,19 +5891,19 @@
         <v>538</v>
       </c>
       <c r="C227" t="n">
-        <v>54104</v>
+        <v>54105</v>
       </c>
       <c r="D227" t="n">
         <v>16</v>
       </c>
       <c r="E227" t="n">
-        <v>4770</v>
+        <v>4780</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>1789</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="228">
@@ -5899,19 +5914,19 @@
         <v>597</v>
       </c>
       <c r="C228" t="n">
-        <v>54701</v>
+        <v>54702</v>
       </c>
       <c r="D228" t="n">
         <v>10</v>
       </c>
       <c r="E228" t="n">
-        <v>4780</v>
+        <v>4790</v>
       </c>
       <c r="F228" t="n">
         <v>4</v>
       </c>
       <c r="G228" t="n">
-        <v>1793</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="229">
@@ -5919,22 +5934,22 @@
         <v>44106</v>
       </c>
       <c r="B229" t="n">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C229" t="n">
-        <v>55373</v>
+        <v>55376</v>
       </c>
       <c r="D229" t="n">
         <v>17</v>
       </c>
       <c r="E229" t="n">
-        <v>4797</v>
+        <v>4807</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>1793</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="230">
@@ -5945,19 +5960,19 @@
         <v>510</v>
       </c>
       <c r="C230" t="n">
-        <v>55883</v>
+        <v>55886</v>
       </c>
       <c r="D230" t="n">
         <v>11</v>
       </c>
       <c r="E230" t="n">
-        <v>4808</v>
+        <v>4818</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>1793</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="231">
@@ -5968,19 +5983,19 @@
         <v>314</v>
       </c>
       <c r="C231" t="n">
-        <v>56197</v>
+        <v>56200</v>
       </c>
       <c r="D231" t="n">
         <v>10</v>
       </c>
       <c r="E231" t="n">
-        <v>4818</v>
+        <v>4828</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>1794</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="232">
@@ -5991,19 +6006,19 @@
         <v>1020</v>
       </c>
       <c r="C232" t="n">
-        <v>57217</v>
+        <v>57220</v>
       </c>
       <c r="D232" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="n">
-        <v>4827</v>
+        <v>4838</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
       </c>
       <c r="G232" t="n">
-        <v>1796</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="233">
@@ -6014,19 +6029,19 @@
         <v>1096</v>
       </c>
       <c r="C233" t="n">
-        <v>58313</v>
+        <v>58316</v>
       </c>
       <c r="D233" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E233" t="n">
-        <v>4849</v>
+        <v>4861</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>1797</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="234">
@@ -6037,19 +6052,19 @@
         <v>1380</v>
       </c>
       <c r="C234" t="n">
-        <v>59693</v>
+        <v>59696</v>
       </c>
       <c r="D234" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E234" t="n">
-        <v>4876</v>
+        <v>4890</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
       </c>
       <c r="G234" t="n">
-        <v>1799</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="235">
@@ -6060,19 +6075,19 @@
         <v>1474</v>
       </c>
       <c r="C235" t="n">
-        <v>61167</v>
+        <v>61170</v>
       </c>
       <c r="D235" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E235" t="n">
-        <v>4912</v>
+        <v>4928</v>
       </c>
       <c r="F235" t="n">
         <v>3</v>
       </c>
       <c r="G235" t="n">
-        <v>1802</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="236">
@@ -6083,19 +6098,19 @@
         <v>1725</v>
       </c>
       <c r="C236" t="n">
-        <v>62892</v>
+        <v>62895</v>
       </c>
       <c r="D236" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E236" t="n">
-        <v>4940</v>
+        <v>4960</v>
       </c>
       <c r="F236" t="n">
         <v>3</v>
       </c>
       <c r="G236" t="n">
-        <v>1805</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="237">
@@ -6103,22 +6118,22 @@
         <v>44114</v>
       </c>
       <c r="B237" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C237" t="n">
-        <v>64143</v>
+        <v>64147</v>
       </c>
       <c r="D237" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E237" t="n">
-        <v>4966</v>
+        <v>4987</v>
       </c>
       <c r="F237" t="n">
         <v>3</v>
       </c>
       <c r="G237" t="n">
-        <v>1808</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="238">
@@ -6129,19 +6144,19 @@
         <v>807</v>
       </c>
       <c r="C238" t="n">
-        <v>64950</v>
+        <v>64954</v>
       </c>
       <c r="D238" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E238" t="n">
-        <v>4999</v>
+        <v>5022</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
       </c>
       <c r="G238" t="n">
-        <v>1811</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="239">
@@ -6152,19 +6167,19 @@
         <v>2563</v>
       </c>
       <c r="C239" t="n">
-        <v>67513</v>
+        <v>67517</v>
       </c>
       <c r="D239" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E239" t="n">
-        <v>5049</v>
+        <v>5076</v>
       </c>
       <c r="F239" t="n">
         <v>5</v>
       </c>
       <c r="G239" t="n">
-        <v>1816</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="240">
@@ -6172,22 +6187,22 @@
         <v>44117</v>
       </c>
       <c r="B240" t="n">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="C240" t="n">
-        <v>70204</v>
+        <v>70209</v>
       </c>
       <c r="D240" t="n">
         <v>46</v>
       </c>
       <c r="E240" t="n">
-        <v>5095</v>
+        <v>5122</v>
       </c>
       <c r="F240" t="n">
         <v>5</v>
       </c>
       <c r="G240" t="n">
-        <v>1821</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="241">
@@ -6195,22 +6210,22 @@
         <v>44118</v>
       </c>
       <c r="B241" t="n">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="C241" t="n">
-        <v>73201</v>
+        <v>73208</v>
       </c>
       <c r="D241" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E241" t="n">
-        <v>5159</v>
+        <v>5191</v>
       </c>
       <c r="F241" t="n">
         <v>4</v>
       </c>
       <c r="G241" t="n">
-        <v>1825</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="242">
@@ -6218,22 +6233,22 @@
         <v>44119</v>
       </c>
       <c r="B242" t="n">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="C242" t="n">
-        <v>76594</v>
+        <v>76602</v>
       </c>
       <c r="D242" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E242" t="n">
-        <v>5217</v>
+        <v>5252</v>
       </c>
       <c r="F242" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G242" t="n">
-        <v>1829</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="243">
@@ -6244,19 +6259,19 @@
         <v>3690</v>
       </c>
       <c r="C243" t="n">
-        <v>80284</v>
+        <v>80292</v>
       </c>
       <c r="D243" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E243" t="n">
-        <v>5269</v>
+        <v>5309</v>
       </c>
       <c r="F243" t="n">
         <v>8</v>
       </c>
       <c r="G243" t="n">
-        <v>1837</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="244">
@@ -6264,22 +6279,22 @@
         <v>44121</v>
       </c>
       <c r="B244" t="n">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="C244" t="n">
-        <v>82665</v>
+        <v>82671</v>
       </c>
       <c r="D244" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E244" t="n">
-        <v>5338</v>
+        <v>5383</v>
       </c>
       <c r="F244" t="n">
         <v>6</v>
       </c>
       <c r="G244" t="n">
-        <v>1843</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="245">
@@ -6287,22 +6302,22 @@
         <v>44122</v>
       </c>
       <c r="B245" t="n">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="C245" t="n">
-        <v>84452</v>
+        <v>84461</v>
       </c>
       <c r="D245" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E245" t="n">
-        <v>5384</v>
+        <v>5430</v>
       </c>
       <c r="F245" t="n">
         <v>4</v>
       </c>
       <c r="G245" t="n">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="246">
@@ -6310,22 +6325,22 @@
         <v>44123</v>
       </c>
       <c r="B246" t="n">
-        <v>5406</v>
+        <v>5407</v>
       </c>
       <c r="C246" t="n">
-        <v>89858</v>
+        <v>89868</v>
       </c>
       <c r="D246" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E246" t="n">
-        <v>5472</v>
+        <v>5538</v>
       </c>
       <c r="F246" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G246" t="n">
-        <v>1856</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="247">
@@ -6333,22 +6348,22 @@
         <v>44124</v>
       </c>
       <c r="B247" t="n">
-        <v>5601</v>
+        <v>5653</v>
       </c>
       <c r="C247" t="n">
-        <v>95459</v>
+        <v>95521</v>
       </c>
       <c r="D247" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E247" t="n">
-        <v>5553</v>
+        <v>5630</v>
       </c>
       <c r="F247" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G247" t="n">
-        <v>1864</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="248">
@@ -6356,22 +6371,22 @@
         <v>44125</v>
       </c>
       <c r="B248" t="n">
-        <v>5530</v>
+        <v>6450</v>
       </c>
       <c r="C248" t="n">
-        <v>100989</v>
+        <v>101971</v>
       </c>
       <c r="D248" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E248" t="n">
-        <v>5592</v>
+        <v>5696</v>
       </c>
       <c r="F248" t="n">
         <v>9</v>
       </c>
       <c r="G248" t="n">
-        <v>1873</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="249">
@@ -6379,22 +6394,22 @@
         <v>44126</v>
       </c>
       <c r="B249" t="n">
-        <v>2659</v>
+        <v>6747</v>
       </c>
       <c r="C249" t="n">
-        <v>103648</v>
+        <v>108718</v>
       </c>
       <c r="D249" t="n">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E249" t="n">
-        <v>5601</v>
+        <v>5759</v>
       </c>
       <c r="F249" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G249" t="n">
-        <v>1877</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="250">
@@ -6402,22 +6417,91 @@
         <v>44127</v>
       </c>
       <c r="B250" t="n">
-        <v>5</v>
+        <v>7158</v>
       </c>
       <c r="C250" t="n">
-        <v>103653</v>
+        <v>115876</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E250" t="n">
-        <v>5601</v>
+        <v>5808</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G250" t="n">
-        <v>1877</v>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="B251" t="n">
+        <v>3819</v>
+      </c>
+      <c r="C251" t="n">
+        <v>119695</v>
+      </c>
+      <c r="D251" t="n">
+        <v>24</v>
+      </c>
+      <c r="E251" t="n">
+        <v>5832</v>
+      </c>
+      <c r="F251" t="n">
+        <v>7</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1391</v>
+      </c>
+      <c r="C252" t="n">
+        <v>121086</v>
+      </c>
+      <c r="D252" t="n">
+        <v>13</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5845</v>
+      </c>
+      <c r="F252" t="n">
+        <v>7</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="B253" t="n">
+        <v>7</v>
+      </c>
+      <c r="C253" t="n">
+        <v>121093</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+      <c r="E253" t="n">
+        <v>5846</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1914</v>
       </c>
     </row>
   </sheetData>
@@ -6432,7 +6516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -6507,31 +6591,31 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="C8" t="n">
         <v>0.9</v>
       </c>
       <c r="D8" t="n">
-        <v>98.7</v>
+        <v>115</v>
       </c>
       <c r="E8" t="n">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="F8" t="n">
         <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>89.8</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
-        <v>824</v>
+        <v>940</v>
       </c>
       <c r="K8" t="n">
         <v>0.8</v>
@@ -6542,34 +6626,34 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>3475</v>
+        <v>4129</v>
       </c>
       <c r="C9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D9" t="n">
-        <v>798.4</v>
+        <v>948.6</v>
       </c>
       <c r="E9" t="n">
-        <v>3532</v>
+        <v>4241</v>
       </c>
       <c r="F9" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="G9" t="n">
-        <v>861.7</v>
+        <v>1034.6</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7009</v>
+        <v>8372</v>
       </c>
       <c r="K9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="10">
@@ -6577,34 +6661,34 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>10216</v>
+        <v>11875</v>
       </c>
       <c r="C10" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="D10" t="n">
-        <v>1890.6</v>
+        <v>2197.6</v>
       </c>
       <c r="E10" t="n">
-        <v>10312</v>
+        <v>12022</v>
       </c>
       <c r="F10" t="n">
         <v>19.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1994.9</v>
+        <v>2325.7</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>18.2</v>
       </c>
       <c r="J10" t="n">
-        <v>20534</v>
+        <v>23905</v>
       </c>
       <c r="K10" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="11">
@@ -6612,34 +6696,34 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>9088</v>
+        <v>10713</v>
       </c>
       <c r="C11" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="D11" t="n">
-        <v>1475.3</v>
+        <v>1739.1</v>
       </c>
       <c r="E11" t="n">
-        <v>8875</v>
+        <v>10395</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>1469.1</v>
+        <v>1720.8</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="J11" t="n">
-        <v>17974</v>
+        <v>21120</v>
       </c>
       <c r="K11" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="12">
@@ -6647,34 +6731,34 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>7818</v>
+        <v>9205</v>
       </c>
       <c r="C12" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D12" t="n">
-        <v>1284.9</v>
+        <v>1512.9</v>
       </c>
       <c r="E12" t="n">
-        <v>8496</v>
+        <v>9960</v>
       </c>
       <c r="F12" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="G12" t="n">
-        <v>1412.3</v>
+        <v>1655.7</v>
       </c>
       <c r="H12" t="n">
         <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="J12" t="n">
-        <v>16323</v>
+        <v>19174</v>
       </c>
       <c r="K12" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="13">
@@ -6682,34 +6766,34 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>8714</v>
+        <v>10136</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="D13" t="n">
-        <v>1341.2</v>
+        <v>1560.1</v>
       </c>
       <c r="E13" t="n">
-        <v>8800</v>
+        <v>10246</v>
       </c>
       <c r="F13" t="n">
         <v>16.8</v>
       </c>
       <c r="G13" t="n">
-        <v>1378.2</v>
+        <v>1604.6</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="J13" t="n">
-        <v>17518</v>
+        <v>20386</v>
       </c>
       <c r="K13" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="14">
@@ -6717,31 +6801,31 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>5321</v>
+        <v>6173</v>
       </c>
       <c r="C14" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="D14" t="n">
-        <v>1156.6</v>
+        <v>1341.8</v>
       </c>
       <c r="E14" t="n">
-        <v>4654</v>
+        <v>5439</v>
       </c>
       <c r="F14" t="n">
         <v>8.9</v>
       </c>
       <c r="G14" t="n">
-        <v>977.4</v>
+        <v>1142.2</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="J14" t="n">
-        <v>9980</v>
+        <v>11617</v>
       </c>
       <c r="K14" t="n">
         <v>9.6</v>
@@ -6752,31 +6836,31 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>3481</v>
+        <v>4083</v>
       </c>
       <c r="C15" t="n">
         <v>6.8</v>
       </c>
       <c r="D15" t="n">
-        <v>1055.4</v>
+        <v>1237.9</v>
       </c>
       <c r="E15" t="n">
-        <v>3045</v>
+        <v>3573</v>
       </c>
       <c r="F15" t="n">
         <v>5.8</v>
       </c>
       <c r="G15" t="n">
-        <v>803.3</v>
+        <v>942.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="J15" t="n">
-        <v>6528</v>
+        <v>7659</v>
       </c>
       <c r="K15" t="n">
         <v>6.3</v>
@@ -6787,22 +6871,22 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>2701</v>
+        <v>3047</v>
       </c>
       <c r="C16" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="D16" t="n">
-        <v>1600.5</v>
+        <v>1805.5</v>
       </c>
       <c r="E16" t="n">
-        <v>4205</v>
+        <v>4813</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="G16" t="n">
-        <v>1521.6</v>
+        <v>1741.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -6811,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6906</v>
+        <v>7860</v>
       </c>
       <c r="K16" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="17">
@@ -6825,11 +6909,11 @@
         <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17" t="n">
         <v>0.1</v>
@@ -6842,10 +6926,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -6865,7 +6949,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
@@ -6920,16 +7004,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="n">
-        <v>4738</v>
+        <v>5449</v>
       </c>
       <c r="C8" t="n">
-        <v>698.6</v>
+        <v>803.4</v>
       </c>
       <c r="E8" t="n">
-        <v>1840</v>
+        <v>2416</v>
       </c>
       <c r="F8" t="n">
-        <v>271.3</v>
+        <v>356.2</v>
       </c>
     </row>
     <row r="9">
@@ -6937,16 +7021,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="C9" t="n">
-        <v>1282.1</v>
+        <v>1467.9</v>
       </c>
       <c r="E9" t="n">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F9" t="n">
-        <v>935.3</v>
+        <v>1009.6</v>
       </c>
     </row>
     <row r="10">
@@ -6954,16 +7038,16 @@
         <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>463</v>
+        <v>547</v>
       </c>
       <c r="C10" t="n">
-        <v>838.3</v>
+        <v>990.3</v>
       </c>
       <c r="E10" t="n">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="F10" t="n">
-        <v>454.4</v>
+        <v>568.5</v>
       </c>
     </row>
     <row r="11">
@@ -6971,16 +7055,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>8053</v>
+        <v>9740</v>
       </c>
       <c r="C11" t="n">
-        <v>778.1</v>
+        <v>941.1</v>
       </c>
       <c r="E11" t="n">
-        <v>3839</v>
+        <v>5220</v>
       </c>
       <c r="F11" t="n">
-        <v>370.9</v>
+        <v>504.4</v>
       </c>
     </row>
     <row r="12">
@@ -6988,16 +7072,16 @@
         <v>45</v>
       </c>
       <c r="B12" t="n">
-        <v>1906</v>
+        <v>2212</v>
       </c>
       <c r="C12" t="n">
-        <v>661.5</v>
+        <v>767.7</v>
       </c>
       <c r="E12" t="n">
-        <v>634</v>
+        <v>887</v>
       </c>
       <c r="F12" t="n">
-        <v>220</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="13">
@@ -7005,16 +7089,16 @@
         <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>2073</v>
+        <v>2269</v>
       </c>
       <c r="C13" t="n">
-        <v>1064.4</v>
+        <v>1165</v>
       </c>
       <c r="E13" t="n">
-        <v>504</v>
+        <v>639</v>
       </c>
       <c r="F13" t="n">
-        <v>258.8</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="14">
@@ -7022,16 +7106,16 @@
         <v>47</v>
       </c>
       <c r="B14" t="n">
-        <v>330</v>
+        <v>413</v>
       </c>
       <c r="C14" t="n">
-        <v>859.9</v>
+        <v>1076.1</v>
       </c>
       <c r="E14" t="n">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="F14" t="n">
-        <v>497.7</v>
+        <v>685.3</v>
       </c>
     </row>
     <row r="15">
@@ -7039,16 +7123,16 @@
         <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>5454</v>
+        <v>6517</v>
       </c>
       <c r="C15" t="n">
-        <v>1711.3</v>
+        <v>2044.8</v>
       </c>
       <c r="E15" t="n">
-        <v>2640</v>
+        <v>3462</v>
       </c>
       <c r="F15" t="n">
-        <v>828.3</v>
+        <v>1086.2</v>
       </c>
     </row>
     <row r="16">
@@ -7056,16 +7140,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>14481</v>
+        <v>16451</v>
       </c>
       <c r="C16" t="n">
-        <v>2899.2</v>
+        <v>3293.6</v>
       </c>
       <c r="E16" t="n">
-        <v>5057</v>
+        <v>6543</v>
       </c>
       <c r="F16" t="n">
-        <v>1012.5</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="17">
@@ -7073,16 +7157,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="C17" t="n">
-        <v>814.3</v>
+        <v>896</v>
       </c>
       <c r="E17" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F17" t="n">
-        <v>324.2</v>
+        <v>373.7</v>
       </c>
     </row>
     <row r="18">
@@ -7090,16 +7174,16 @@
         <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>1806</v>
+        <v>2082</v>
       </c>
       <c r="C18" t="n">
-        <v>910.4</v>
+        <v>1049.5</v>
       </c>
       <c r="E18" t="n">
-        <v>596</v>
+        <v>803</v>
       </c>
       <c r="F18" t="n">
-        <v>300.4</v>
+        <v>404.8</v>
       </c>
     </row>
     <row r="19">
@@ -7107,16 +7191,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>1142</v>
+        <v>1440</v>
       </c>
       <c r="C19" t="n">
-        <v>1555.5</v>
+        <v>1961.3</v>
       </c>
       <c r="E19" t="n">
-        <v>684</v>
+        <v>929</v>
       </c>
       <c r="F19" t="n">
-        <v>931.6</v>
+        <v>1265.3</v>
       </c>
     </row>
     <row r="20">
@@ -7124,16 +7208,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>2793</v>
+        <v>3348</v>
       </c>
       <c r="C20" t="n">
-        <v>682</v>
+        <v>817.5</v>
       </c>
       <c r="E20" t="n">
-        <v>1419</v>
+        <v>1848</v>
       </c>
       <c r="F20" t="n">
-        <v>346.5</v>
+        <v>451.2</v>
       </c>
     </row>
     <row r="21">
@@ -7141,16 +7225,16 @@
         <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>2665</v>
+        <v>3102</v>
       </c>
       <c r="C21" t="n">
-        <v>1506.9</v>
+        <v>1754</v>
       </c>
       <c r="E21" t="n">
-        <v>1315</v>
+        <v>1645</v>
       </c>
       <c r="F21" t="n">
-        <v>743.6</v>
+        <v>930.2</v>
       </c>
     </row>
     <row r="22">
@@ -7158,16 +7242,16 @@
         <v>55</v>
       </c>
       <c r="B22" t="n">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="C22" t="n">
-        <v>731.1</v>
+        <v>814.4</v>
       </c>
       <c r="E22" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="F22" t="n">
-        <v>296.1</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23">
@@ -7175,16 +7259,16 @@
         <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="C23" t="n">
-        <v>710.9</v>
+        <v>845.6</v>
       </c>
       <c r="E23" t="n">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="F23" t="n">
-        <v>309.2</v>
+        <v>414.9</v>
       </c>
     </row>
     <row r="24">
@@ -7192,16 +7276,16 @@
         <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>4421</v>
+        <v>5212</v>
       </c>
       <c r="C24" t="n">
-        <v>870.8</v>
+        <v>1026.6</v>
       </c>
       <c r="E24" t="n">
-        <v>2364</v>
+        <v>2994</v>
       </c>
       <c r="F24" t="n">
-        <v>465.6</v>
+        <v>589.7</v>
       </c>
     </row>
     <row r="25">
@@ -7209,16 +7293,16 @@
         <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>396</v>
+        <v>535</v>
       </c>
       <c r="C25" t="n">
-        <v>483</v>
+        <v>652.5</v>
       </c>
       <c r="E25" t="n">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="F25" t="n">
-        <v>190.3</v>
+        <v>346.4</v>
       </c>
     </row>
     <row r="26">
@@ -7226,16 +7310,16 @@
         <v>59</v>
       </c>
       <c r="B26" t="n">
-        <v>1577</v>
+        <v>1850</v>
       </c>
       <c r="C26" t="n">
-        <v>577.2</v>
+        <v>677.2</v>
       </c>
       <c r="E26" t="n">
-        <v>592</v>
+        <v>833</v>
       </c>
       <c r="F26" t="n">
-        <v>216.7</v>
+        <v>304.9</v>
       </c>
     </row>
     <row r="27">
@@ -7243,16 +7327,16 @@
         <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>2112</v>
+        <v>2551</v>
       </c>
       <c r="C27" t="n">
-        <v>1326.9</v>
+        <v>1602.7</v>
       </c>
       <c r="E27" t="n">
-        <v>1248</v>
+        <v>1554</v>
       </c>
       <c r="F27" t="n">
-        <v>784.1</v>
+        <v>976.3</v>
       </c>
     </row>
     <row r="28">
@@ -7260,16 +7344,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="n">
-        <v>1689</v>
+        <v>2034</v>
       </c>
       <c r="C28" t="n">
-        <v>610.9</v>
+        <v>735.7</v>
       </c>
       <c r="E28" t="n">
-        <v>844</v>
+        <v>1149</v>
       </c>
       <c r="F28" t="n">
-        <v>305.3</v>
+        <v>415.6</v>
       </c>
     </row>
     <row r="29">
@@ -7277,16 +7361,16 @@
         <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>5246</v>
+        <v>5914</v>
       </c>
       <c r="C29" t="n">
-        <v>1484.7</v>
+        <v>1673.7</v>
       </c>
       <c r="E29" t="n">
-        <v>1441</v>
+        <v>2035</v>
       </c>
       <c r="F29" t="n">
-        <v>407.8</v>
+        <v>575.9</v>
       </c>
     </row>
     <row r="30">
@@ -7294,16 +7378,16 @@
         <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="C30" t="n">
-        <v>787.7</v>
+        <v>908.5</v>
       </c>
       <c r="E30" t="n">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="F30" t="n">
-        <v>307.4</v>
+        <v>406.2</v>
       </c>
     </row>
     <row r="31">
@@ -7311,16 +7395,16 @@
         <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>17221</v>
+        <v>19628</v>
       </c>
       <c r="C31" t="n">
-        <v>2154.9</v>
+        <v>2456.1</v>
       </c>
       <c r="E31" t="n">
-        <v>5460</v>
+        <v>7308</v>
       </c>
       <c r="F31" t="n">
-        <v>683.2</v>
+        <v>914.5</v>
       </c>
     </row>
     <row r="32">
@@ -7328,16 +7412,16 @@
         <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>7147</v>
+        <v>9057</v>
       </c>
       <c r="C32" t="n">
-        <v>2077.9</v>
+        <v>2633.2</v>
       </c>
       <c r="E32" t="n">
-        <v>4093</v>
+        <v>5707</v>
       </c>
       <c r="F32" t="n">
-        <v>1190</v>
+        <v>1659.2</v>
       </c>
     </row>
     <row r="33">
@@ -7345,16 +7429,16 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>1162</v>
+        <v>1353</v>
       </c>
       <c r="C33" t="n">
-        <v>916.1</v>
+        <v>1066.7</v>
       </c>
       <c r="E33" t="n">
-        <v>598</v>
+        <v>718</v>
       </c>
       <c r="F33" t="n">
-        <v>471.5</v>
+        <v>566.1</v>
       </c>
     </row>
     <row r="34">
@@ -7362,16 +7446,16 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>15370</v>
+        <v>17787</v>
       </c>
       <c r="C34" t="n">
-        <v>1010.5</v>
+        <v>1169.5</v>
       </c>
       <c r="E34" t="n">
-        <v>6076</v>
+        <v>7812</v>
       </c>
       <c r="F34" t="n">
-        <v>399.5</v>
+        <v>513.6</v>
       </c>
     </row>
     <row r="35">
@@ -7379,16 +7463,16 @@
         <v>68</v>
       </c>
       <c r="B35" t="n">
-        <v>103653</v>
+        <v>121093</v>
       </c>
       <c r="C35" t="n">
-        <v>1207.7</v>
+        <v>1410.9</v>
       </c>
       <c r="E35" t="n">
-        <v>42481</v>
+        <v>56132</v>
       </c>
       <c r="F35" t="n">
-        <v>494.9</v>
+        <v>654</v>
       </c>
     </row>
     <row r="37">
@@ -7408,7 +7492,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -7496,22 +7580,22 @@
         <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F9" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="G9" t="n">
         <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="10">
@@ -7519,25 +7603,25 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C10" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F10" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="G10" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -7545,25 +7629,25 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F11" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="G11" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="H11" t="n">
-        <v>17.4</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="12">
@@ -7571,25 +7655,25 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C12" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="F12" t="n">
-        <v>34.2</v>
+        <v>35.5</v>
       </c>
       <c r="G12" t="n">
-        <v>40.9</v>
+        <v>42.2</v>
       </c>
       <c r="H12" t="n">
-        <v>27.4</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="13">
@@ -7597,25 +7681,25 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="C13" t="n">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>820</v>
+        <v>845</v>
       </c>
       <c r="F13" t="n">
-        <v>63.7</v>
+        <v>65.6</v>
       </c>
       <c r="G13" t="n">
-        <v>79.9</v>
+        <v>81.6</v>
       </c>
       <c r="H13" t="n">
-        <v>47.1</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="14">
@@ -7623,25 +7707,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="C14" t="n">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1048</v>
+        <v>1083</v>
       </c>
       <c r="F14" t="n">
-        <v>111.9</v>
+        <v>115.7</v>
       </c>
       <c r="G14" t="n">
-        <v>151.9</v>
+        <v>157.2</v>
       </c>
       <c r="H14" t="n">
-        <v>72.9</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="15">
@@ -7649,25 +7733,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="C15" t="n">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1370</v>
+        <v>1448</v>
       </c>
       <c r="F15" t="n">
-        <v>193.3</v>
+        <v>204.3</v>
       </c>
       <c r="G15" t="n">
-        <v>252.2</v>
+        <v>265</v>
       </c>
       <c r="H15" t="n">
-        <v>141.9</v>
+        <v>151.4</v>
       </c>
     </row>
     <row r="16">
@@ -7675,25 +7759,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>872</v>
+        <v>911</v>
       </c>
       <c r="C16" t="n">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1646</v>
+        <v>1738</v>
       </c>
       <c r="F16" t="n">
-        <v>369.8</v>
+        <v>390.5</v>
       </c>
       <c r="G16" t="n">
-        <v>516.7</v>
+        <v>539.8</v>
       </c>
       <c r="H16" t="n">
-        <v>280.1</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="17">
@@ -7733,7 +7817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -7920,7 +8004,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" t="n">
         <v>34</v>
@@ -7929,13 +8013,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="G14" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="H14" t="n">
         <v>7.1</v>
@@ -7946,25 +8030,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C15" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F15" t="n">
-        <v>52.3</v>
+        <v>53.5</v>
       </c>
       <c r="G15" t="n">
-        <v>76.1</v>
+        <v>76.4</v>
       </c>
       <c r="H15" t="n">
-        <v>31.7</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="16">
@@ -7972,25 +8056,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="C16" t="n">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1308</v>
+        <v>1336</v>
       </c>
       <c r="F16" t="n">
-        <v>293.9</v>
+        <v>300.2</v>
       </c>
       <c r="G16" t="n">
-        <v>407.7</v>
+        <v>414.2</v>
       </c>
       <c r="H16" t="n">
-        <v>224.4</v>
+        <v>230.5</v>
       </c>
     </row>
     <row r="18">
@@ -8010,7 +8094,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -8068,7 +8152,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44126</v>
+        <v>44129</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -8080,13 +8164,13 @@
         <v>96</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>50.574529605268</v>
+        <v>66.7937665049166</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46.1511013599093</v>
+        <v>51.9015580788756</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>228.101449852331</v>
+        <v>210.702632087254</v>
       </c>
     </row>
     <row r="9">
@@ -8120,20 +8204,26 @@
         <v>43</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C10" t="s">
         <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>181.047905275736</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>135.785928956802</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>271.571857913604</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -8143,13 +8233,13 @@
         <v>44126</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>281.455529929651</v>
@@ -8169,13 +8259,13 @@
         <v>44126</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>85.7245984479336</v>
@@ -8192,20 +8282,26 @@
         <v>46</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>204.861218077077</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>276.228910590144</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>198.699978435661</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -8215,13 +8311,13 @@
         <v>44126</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>323.101777059774</v>
@@ -8241,13 +8337,13 @@
         <v>44126</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8261,13 +8357,13 @@
         <v>44126</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>297.108993353087</v>
@@ -8287,13 +8383,13 @@
         <v>44126</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>188.104843699725</v>
@@ -8313,13 +8409,13 @@
         <v>44126</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>148.705256100696</v>
@@ -8339,13 +8435,13 @@
         <v>44126</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>572.059003800106</v>
@@ -8365,13 +8461,13 @@
         <v>44126</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>279.81453131066</v>
@@ -8391,13 +8487,13 @@
         <v>44126</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -8411,13 +8507,13 @@
         <v>44126</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>738.032991694237</v>
@@ -8437,13 +8533,13 @@
         <v>44126</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>221.981448693216</v>
@@ -8463,13 +8559,13 @@
         <v>44126</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>222.179764702175</v>
@@ -8489,13 +8585,13 @@
         <v>44126</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>140.259296752083</v>
@@ -8515,13 +8611,13 @@
         <v>44126</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>109.079994436188</v>
@@ -8541,13 +8637,13 @@
         <v>44126</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -8561,13 +8657,13 @@
         <v>44126</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>164.935327989815</v>
@@ -8587,13 +8683,13 @@
         <v>44126</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>116.317572443773</v>
@@ -8613,13 +8709,13 @@
         <v>44126</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>241.539263854198</v>
@@ -8639,13 +8735,13 @@
         <v>44126</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -8659,13 +8755,13 @@
         <v>44126</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>925.993225858034</v>
@@ -8685,13 +8781,13 @@
         <v>44126</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>314.576976749687</v>
@@ -8711,13 +8807,13 @@
         <v>44126</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>282.12296379674</v>
